--- a/Παραδοτέο 1ο/GanttPert.xlsx
+++ b/Παραδοτέο 1ο/GanttPert.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CEID\5o ETOS\Τεχνολιγία λογισμικού\SoftEng2022\1ο παραδοτέο\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35F1500-73E4-4BEF-9FB4-A79C90ADB17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874185B4-10C8-48F2-8C69-8B6E7779A973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{43028A51-FE48-4D32-9A4D-65DDA1873CB9}"/>
+    <workbookView xWindow="1695" yWindow="1140" windowWidth="24945" windowHeight="13935" activeTab="2" xr2:uid="{43028A51-FE48-4D32-9A4D-65DDA1873CB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="41">
   <si>
     <t>Μάρτιος</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Beta</t>
   </si>
   <si>
-    <t>Σχεδιασμός UI/UX</t>
-  </si>
-  <si>
     <t>Σχεδιασμός Βάση Δεδομένων</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>Υλοποίηση Βάση Δεδομένων</t>
   </si>
   <si>
-    <t>Υλοποίηση UI/UX</t>
-  </si>
-  <si>
     <t>Υλοποίηση Σύστημα Πληρωμής</t>
   </si>
   <si>
@@ -207,23 +201,71 @@
     <t>Περιβάλλον Εφαρμογής</t>
   </si>
   <si>
-    <t>Βάση δεδομένων</t>
-  </si>
-  <si>
-    <t>Σύστημα πληρωμής</t>
-  </si>
-  <si>
     <t>Λογική δόμηση εφαρμογής</t>
   </si>
   <si>
     <t>Δοκιμές/debugging</t>
+  </si>
+  <si>
+    <t>5 ημ.</t>
+  </si>
+  <si>
+    <t>7 ημ.</t>
+  </si>
+  <si>
+    <t>10 ημ.</t>
+  </si>
+  <si>
+    <t>3 εβδ.</t>
+  </si>
+  <si>
+    <t>Σχεδιασμός Λογικής δόμησης εφαρμογής</t>
+  </si>
+  <si>
+    <t>Υλοποίηση Λογικής δόμησης Εφαρμογής</t>
+  </si>
+  <si>
+    <t>Σχεδιασμός Βάσης δεδομένων</t>
+  </si>
+  <si>
+    <t>Σχεδιασμός Συστήματος πληρωμών</t>
+  </si>
+  <si>
+    <t>Σχεδιασμός Περιβάλλοντος Εφαρμογής</t>
+  </si>
+  <si>
+    <t>Υλοποίηση Λογικής δόμησης εφαρμογής</t>
+  </si>
+  <si>
+    <t>Υλοποίηση Συστήματος πληρωμών</t>
+  </si>
+  <si>
+    <t>Υλοποίηση Περιβάλλοντος Εφαρμογής</t>
+  </si>
+  <si>
+    <t>2 εβδ.</t>
+  </si>
+  <si>
+    <t>11 ημ.</t>
+  </si>
+  <si>
+    <t>17 ημ.</t>
+  </si>
+  <si>
+    <t>18 ημ.</t>
+  </si>
+  <si>
+    <t>24 ημ.</t>
+  </si>
+  <si>
+    <t>Υλοποίηση Βάσης Δεδομένων</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,8 +291,15 @@
       <charset val="161"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,6 +381,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -402,16 +487,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -432,12 +507,44 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,7 +863,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:B1048576"/>
+      <selection sqref="A1:Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,30 +874,30 @@
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -847,64 +954,81 @@
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="8"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
     </row>
     <row r="13" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
     </row>
     <row r="14" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -923,7 +1047,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="A1:Q10"/>
+      <selection activeCell="C15" activeCellId="1" sqref="C12 C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,30 +1058,30 @@
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -1014,63 +1138,62 @@
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="8"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+        <v>18</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+        <v>19</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1085,377 +1208,583 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6800FBC-579C-40BB-A51E-60D92CDB9C04}">
-  <dimension ref="A7:AH19"/>
+  <dimension ref="A2:AZ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:AZ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="6" width="5.140625" customWidth="1"/>
+    <col min="7" max="7" width="3" customWidth="1"/>
+    <col min="8" max="10" width="7.7109375" customWidth="1"/>
+    <col min="11" max="12" width="5.140625" customWidth="1"/>
+    <col min="13" max="13" width="3" customWidth="1"/>
+    <col min="14" max="16" width="7.7109375" customWidth="1"/>
+    <col min="17" max="18" width="5.140625" customWidth="1"/>
+    <col min="19" max="19" width="3" customWidth="1"/>
+    <col min="20" max="22" width="7.7109375" customWidth="1"/>
+    <col min="23" max="24" width="5.140625" customWidth="1"/>
+    <col min="25" max="25" width="3" customWidth="1"/>
+    <col min="26" max="28" width="7.7109375" customWidth="1"/>
+    <col min="29" max="30" width="5.140625" customWidth="1"/>
+    <col min="31" max="31" width="3" customWidth="1"/>
+    <col min="32" max="34" width="7.7109375" customWidth="1"/>
+    <col min="35" max="36" width="5.140625" customWidth="1"/>
+    <col min="37" max="37" width="3" customWidth="1"/>
+    <col min="38" max="40" width="7.7109375" customWidth="1"/>
+    <col min="41" max="42" width="5.140625" customWidth="1"/>
+    <col min="43" max="43" width="3" customWidth="1"/>
+    <col min="44" max="46" width="7.7109375" customWidth="1"/>
+    <col min="47" max="48" width="5.140625" customWidth="1"/>
+    <col min="49" max="49" width="3" customWidth="1"/>
+    <col min="50" max="52" width="7.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="M8" s="24">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="J2" s="22"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="M8" s="20">
         <v>3</v>
       </c>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="S8" s="24">
+      <c r="N8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="20">
         <v>5</v>
       </c>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="M9" s="26" t="s">
+      <c r="T8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="S9" s="26" t="s">
+      <c r="U8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="21">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA8" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+    </row>
+    <row r="9" spans="1:52" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="M9" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="S9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="32">
+        <v>44637</v>
+      </c>
+      <c r="N10" s="33"/>
+      <c r="O10" s="32">
+        <v>44658</v>
+      </c>
+      <c r="P10" s="33"/>
+      <c r="S10" s="32">
+        <v>44645</v>
+      </c>
+      <c r="T10" s="33"/>
+      <c r="U10" s="32">
+        <v>44652</v>
+      </c>
+      <c r="V10" s="33"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="32">
+        <v>44653</v>
+      </c>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="32">
+        <v>44667</v>
+      </c>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>1</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="G11" s="24">
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="20">
         <v>2</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="Y11" s="24">
-        <v>7</v>
-      </c>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AE11" s="24">
+      <c r="H11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="AE11" s="21">
+        <v>9</v>
+      </c>
+      <c r="AF11" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG11" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK11" s="21">
+        <v>10</v>
+      </c>
+      <c r="AL11" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM11" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ11" s="21">
+        <v>11</v>
+      </c>
+      <c r="AR11" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS11" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW11" s="21">
+        <v>12</v>
+      </c>
+      <c r="AX11" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY11" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ11" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="25"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="G12" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AE12" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF12" s="31"/>
+      <c r="AG12" s="31"/>
+      <c r="AH12" s="31"/>
+      <c r="AK12" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL12" s="31"/>
+      <c r="AM12" s="31"/>
+      <c r="AN12" s="31"/>
+      <c r="AQ12" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR12" s="33"/>
+      <c r="AS12" s="33"/>
+      <c r="AT12" s="33"/>
+      <c r="AW12" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX12" s="33"/>
+      <c r="AY12" s="33"/>
+      <c r="AZ12" s="33"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A13" s="36">
+        <v>44621</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="36">
+        <v>44628</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="G13" s="32">
+        <v>44629</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="32">
+        <v>44636</v>
+      </c>
+      <c r="J13" s="33"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AE13" s="32">
+        <v>44668</v>
+      </c>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="32">
+        <v>44682</v>
+      </c>
+      <c r="AH13" s="33"/>
+      <c r="AK13" s="32">
+        <v>44683</v>
+      </c>
+      <c r="AL13" s="33"/>
+      <c r="AM13" s="32">
+        <v>44697</v>
+      </c>
+      <c r="AN13" s="33"/>
+      <c r="AQ13" s="32">
+        <v>44698</v>
+      </c>
+      <c r="AR13" s="33"/>
+      <c r="AS13" s="32">
+        <v>44719</v>
+      </c>
+      <c r="AT13" s="33"/>
+      <c r="AW13" s="32">
+        <v>44720</v>
+      </c>
+      <c r="AX13" s="33"/>
+      <c r="AY13" s="32">
+        <v>44734</v>
+      </c>
+      <c r="AZ13" s="33"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="20">
+        <v>4</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="20">
+        <v>6</v>
+      </c>
+      <c r="T15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="V15" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="21">
         <v>8</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="G12" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="Y12" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AE12" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="26"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="26"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="24">
-        <v>4</v>
-      </c>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="24">
-        <v>6</v>
-      </c>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="23"/>
+      <c r="Z15" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA15" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB15" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+    </row>
+    <row r="16" spans="1:52" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="Y16" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
     </row>
     <row r="17" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="23"/>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="23"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="M17" s="32">
+        <v>44637</v>
+      </c>
+      <c r="N17" s="33"/>
+      <c r="O17" s="32">
+        <v>44658</v>
+      </c>
+      <c r="P17" s="33"/>
+      <c r="S17" s="32">
+        <v>44645</v>
+      </c>
+      <c r="T17" s="33"/>
+      <c r="U17" s="32">
+        <v>44652</v>
+      </c>
+      <c r="V17" s="33"/>
+      <c r="Y17" s="32">
+        <v>44653</v>
+      </c>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="32">
+        <v>44667</v>
+      </c>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
     </row>
     <row r="18" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="23"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
     </row>
     <row r="19" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AE12:AH12"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
+  <mergeCells count="39">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
     <mergeCell ref="S9:V9"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="U10:V10"/>
     <mergeCell ref="S16:V16"/>
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="U17:V17"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AQ12:AT12"/>
+    <mergeCell ref="AW12:AZ12"/>
+    <mergeCell ref="AQ13:AR13"/>
+    <mergeCell ref="AS13:AT13"/>
+    <mergeCell ref="AW13:AX13"/>
+    <mergeCell ref="AY13:AZ13"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AE12:AH12"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AK12:AN12"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM13:AN13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
